--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem4/99/correct_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem4/99/correct_predictions_99.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -566,12 +566,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Return to home immediately</t>
+          <t>Check and re-install battery</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -587,21 +587,21 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
+          <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Check and re-install battery</t>
+          <t>Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8-11</t>
+          <t>10-17</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -617,21 +617,21 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
+          <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Lower altitude immediately and return to home manually</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>10-17</t>
+          <t>12-14</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -647,51 +647,51 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
+          <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically</t>
+          <t>You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3-9</t>
+          <t>11-25</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
+          <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Please fly with caution</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>12-14</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -707,21 +707,21 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
+          <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Ensure you have obtained proper airspace authorization</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>8-10</t>
+          <t>10-16</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -737,21 +737,21 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Contact DJI Support if this error persists after restarting</t>
+          <t>Please check the Compass installation and interference</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>10-18</t>
+          <t>5-11</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -767,21 +767,21 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
+          <t>Check and make sure you have obtained proper authorization to fly in this airspace</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>11-25</t>
+          <t>14-27</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -790,216 +790,6 @@
         </is>
       </c>
       <c r="F12" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Please fly with caution</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>8-11</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Please check the Compass installation and interference</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>5-11</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Return the aircraft to home manually</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>6-11</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>16</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Check and make sure you have obtained proper authorization to fly in this airspace</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>14-27</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>17</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Contact DJI Support for assistance</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>7-11</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>18</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>GPS signal weak Hovering unstable Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Fly with caution</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>5-7</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>19</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Lower altitude immediately and manually return to home</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>8-15</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem4/99/correct_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem4/99/correct_predictions_99.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -566,12 +566,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Check and re-install battery</t>
+          <t>Return to home immediately</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8-11</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -587,21 +587,21 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
+          <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Lower altitude immediately and return to home manually</t>
+          <t>Check and re-install battery</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10-17</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -617,21 +617,21 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
+          <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>12-14</t>
+          <t>10-17</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -647,51 +647,51 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
+          <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
+          <t>Aircraft unable to return to home automatically</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>11-25</t>
+          <t>3-9</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
+          <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Please fly with caution</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>8-11</t>
+          <t>12-14</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -707,21 +707,21 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
+          <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Ensure you have obtained proper airspace authorization</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>10-16</t>
+          <t>8-10</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -737,21 +737,21 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Please check the Compass installation and interference</t>
+          <t>Contact DJI Support if this error persists after restarting</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>5-11</t>
+          <t>10-18</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -767,29 +767,239 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11-25</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Please fly with caution</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8-11</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Please check the Compass installation and interference</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5-11</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Return the aircraft to home manually</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6-11</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
         <v>16</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>Check and make sure you have obtained proper authorization to fly in this airspace</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>14-27</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>17</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Contact DJI Support for assistance</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7-11</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>18</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>GPS signal weak Hovering unstable Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Fly with caution</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5-7</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>19</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Lower altitude immediately and manually return to home</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8-15</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
